--- a/nhl_analysis_79-11.xlsx
+++ b/nhl_analysis_79-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwallach/Documents/BootCamp/Module_23_Project_4/NHL_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1D3E7944-DA3E-FB4E-B749-5FEA416D206A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D82BA07B-F798-784A-9B29-2D054A40E99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="27720" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14280" yWindow="-20840" windowWidth="27720" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nhl_analysis" sheetId="1" r:id="rId1"/>
@@ -1148,9 +1148,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G793" sqref="G793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
